--- a/predict/pred_result_with_ad/test/tg403_vapour_morgan_mdTrue_xgb.xlsx
+++ b/predict/pred_result_with_ad/test/tg403_vapour_morgan_mdTrue_xgb.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6575888395309448</v>
+        <v>0.9070506691932678</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.703734525820163</v>
+        <v>2.719431151390665</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>137512.4487583178</v>
+        <v>137560.252026857</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9468759298324585</v>
+        <v>0.9533759355545044</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.935834805546223</v>
+        <v>3.936670951020015</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>209356.521328246</v>
+        <v>209354.5398768153</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4708070158958435</v>
+        <v>0.3501904308795929</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.138236132775876</v>
+        <v>4.138604870459698</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>141797.1119938272</v>
+        <v>141785.2865470177</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9362038373947144</v>
+        <v>0.9127817153930664</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.681571413601241</v>
+        <v>2.689404995504757</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>22.15388809416877</v>
+        <v>22.28951109517032</v>
       </c>
     </row>
     <row r="6">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9739661812782288</v>
+        <v>0.9649591445922852</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.20356593146345</v>
+        <v>3.220297566231084</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9.473792881590468</v>
+        <v>9.473792423130437</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00212771212682128</v>
+        <v>0.005390094127506018</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.62437227498162</v>
+        <v>3.62479585084915</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>120157.7860730171</v>
+        <v>120109.2018235464</v>
       </c>
     </row>
     <row r="8">
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6782784461975098</v>
+        <v>0.7491577863693237</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.486358798505948</v>
+        <v>4.488941139267705</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>279058.9313033114</v>
+        <v>279186.5841821253</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7390269041061401</v>
+        <v>0.8269720673561096</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.602430931530184</v>
+        <v>3.602627219704221</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>117610.0105969015</v>
+        <v>117602.129229928</v>
       </c>
     </row>
     <row r="10">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09065522253513336</v>
+        <v>0.2050681561231613</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.76215056436</v>
+        <v>2.764724314304208</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>126951.1449090378</v>
+        <v>126965.2765283823</v>
       </c>
     </row>
     <row r="11">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8284813165664673</v>
+        <v>0.7917832732200623</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.571679100020674</v>
+        <v>3.57412121849184</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>146547.2019127239</v>
+        <v>146567.3581995314</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7853160500526428</v>
+        <v>0.7090650200843811</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.25639375353571</v>
+        <v>3.260636154532248</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>48.40544011424884</v>
+        <v>56.00590246140099</v>
       </c>
     </row>
     <row r="13">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03259756416082382</v>
+        <v>0.02698194794356823</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.277263580533809</v>
+        <v>4.278429160599605</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>242622.8898242775</v>
+        <v>242612.538780875</v>
       </c>
     </row>
     <row r="14">
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9761126041412354</v>
+        <v>0.9298590421676636</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.524568818287731</v>
+        <v>3.526308286411548</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>205060.6600282837</v>
+        <v>205182.9193537412</v>
       </c>
     </row>
     <row r="15">
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1180230975151062</v>
+        <v>0.06005015596747398</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.33191353867718</v>
+        <v>4.351307624075258</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5753.765052179925</v>
+        <v>5756.576151607207</v>
       </c>
     </row>
     <row r="16">
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7874070405960083</v>
+        <v>0.6365626454353333</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.372910767208286</v>
+        <v>3.372934102586228</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>162887.6668172828</v>
+        <v>162895.0318039839</v>
       </c>
     </row>
     <row r="17">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4867860078811646</v>
+        <v>0.6971766352653503</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.609619373838536</v>
+        <v>2.614002442902776</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>27.50555777602746</v>
+        <v>27.66944283251174</v>
       </c>
     </row>
     <row r="18">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9970517158508301</v>
+        <v>0.9752849340438843</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.02493261821935</v>
+        <v>5.025177380920343</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>282167.2132419077</v>
+        <v>282245.8558054875</v>
       </c>
     </row>
     <row r="19">
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9899305105209351</v>
+        <v>0.9829803705215454</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.64071092706702</v>
+        <v>3.643513285246042</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>229221.5325577825</v>
+        <v>229205.9363259154</v>
       </c>
     </row>
     <row r="20">
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9517110586166382</v>
+        <v>0.9260752201080322</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.331706708899217</v>
+        <v>3.334324592038567</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>161198.7191151045</v>
+        <v>161195.2606920174</v>
       </c>
     </row>
     <row r="21">
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6776654720306396</v>
+        <v>0.7074727416038513</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.387541446134783</v>
+        <v>3.390018040872765</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>138887.5147896738</v>
+        <v>138937.8684800681</v>
       </c>
     </row>
     <row r="22">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6004208326339722</v>
+        <v>0.671506941318512</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3.704354028084333</v>
+        <v>3.704669238584395</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>173249.8364371608</v>
+        <v>173323.0376318338</v>
       </c>
     </row>
     <row r="23">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07552334666252136</v>
+        <v>0.1753888875246048</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.875589117461603</v>
+        <v>4.876848793916139</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>312547.1080109258</v>
+        <v>312530.3398096554</v>
       </c>
     </row>
     <row r="24">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6383283734321594</v>
+        <v>0.5957462787628174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.38619753095835</v>
+        <v>3.388197503647913</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>201272.8322596914</v>
+        <v>201320.6549430281</v>
       </c>
     </row>
     <row r="25">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3168889284133911</v>
+        <v>0.4678186476230621</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.561456718200019</v>
+        <v>3.561737767665445</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>170168.4427146037</v>
+        <v>170228.6077529671</v>
       </c>
     </row>
     <row r="26">
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9488170146942139</v>
+        <v>0.8630836009979248</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5.052936098410611</v>
+        <v>5.054183961366825</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>206396.5530405425</v>
+        <v>206412.2750162319</v>
       </c>
     </row>
     <row r="27">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9665771722793579</v>
+        <v>0.900888979434967</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.26197251063589</v>
+        <v>4.26209883687218</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>232309.6793151883</v>
+        <v>232441.0397282649</v>
       </c>
     </row>
     <row r="28">
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.972863495349884</v>
+        <v>0.9524479508399963</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.189517968204749</v>
+        <v>4.189701810713223</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>200280.6128014927</v>
+        <v>200287.912386974</v>
       </c>
     </row>
     <row r="29">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02344955690205097</v>
+        <v>0.05045550689101219</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.716431891543051</v>
+        <v>2.739787251771514</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>104075.1373833836</v>
+        <v>104149.2592249615</v>
       </c>
     </row>
     <row r="30">
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.907116711139679</v>
+        <v>0.9430521130561829</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.128818382179444</v>
+        <v>3.131312180877011</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>124565.4652424318</v>
+        <v>124631.0345725431</v>
       </c>
     </row>
     <row r="31">
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.945000171661377</v>
+        <v>0.9708293080329895</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.456419935516256</v>
+        <v>4.456744983301723</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>254778.1773061983</v>
+        <v>254871.2950642219</v>
       </c>
     </row>
     <row r="32">
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0195985771715641</v>
+        <v>0.03746582195162773</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.822226193765321</v>
+        <v>2.825174616466679</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>19.02636926740735</v>
+        <v>19.02636973237881</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9771734476089478</v>
+        <v>0.9622136950492859</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.428520260162784</v>
+        <v>4.430367051383874</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>236626.103417296</v>
+        <v>236570.2144022314</v>
       </c>
     </row>
     <row r="34">
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0345441997051239</v>
+        <v>0.03063068352639675</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.295840488343591</v>
+        <v>3.30207473110807</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>185399.1203230227</v>
+        <v>185701.5833167163</v>
       </c>
     </row>
     <row r="35">
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1991553902626038</v>
+        <v>0.1721673756837845</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.202031436370625</v>
+        <v>4.205471463390285</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>118226.456805474</v>
+        <v>118220.3706715662</v>
       </c>
     </row>
     <row r="36">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9347977638244629</v>
+        <v>0.7374649047851562</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4.589182260751912</v>
+        <v>4.590198580444356</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>293010.9639256348</v>
+        <v>293129.7578119288</v>
       </c>
     </row>
     <row r="37">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06958004087209702</v>
+        <v>0.1310810893774033</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.390530978514441</v>
+        <v>3.392457312857684</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>143002.3001764046</v>
+        <v>143027.7945175821</v>
       </c>
     </row>
     <row r="38">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01651768572628498</v>
+        <v>0.04676682874560356</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.502151276502783</v>
+        <v>3.504463287689421</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>137871.649447171</v>
+        <v>137875.4620261319</v>
       </c>
     </row>
     <row r="39">
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.05555537715554237</v>
+        <v>0.06721097975969315</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.995448632797507</v>
+        <v>2.995566711552834</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>154479.3883354392</v>
+        <v>154419.1432324846</v>
       </c>
     </row>
     <row r="40">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3919883072376251</v>
+        <v>0.3784955739974976</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.645900995048252</v>
+        <v>3.648462226623599</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>164501.3528905938</v>
+        <v>164526.5810626142</v>
       </c>
     </row>
     <row r="41">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3354366719722748</v>
+        <v>0.4605014026165009</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.551649098501758</v>
+        <v>3.551697048491188</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>177488.9181544361</v>
+        <v>177511.2622827806</v>
       </c>
     </row>
     <row r="42">
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8301230669021606</v>
+        <v>0.6212562322616577</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.166234194015484</v>
+        <v>3.168738952727917</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>122477.4922629696</v>
+        <v>122464.2357824829</v>
       </c>
     </row>
     <row r="43">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03823282942175865</v>
+        <v>0.07620631158351898</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.317458502793481</v>
+        <v>2.335468356874585</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>97391.41243011937</v>
+        <v>97350.85375118825</v>
       </c>
     </row>
     <row r="44">
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9568330645561218</v>
+        <v>0.972510814666748</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.789993404256292</v>
+        <v>4.790566781417826</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>269883.6411475589</v>
+        <v>269912.3343305062</v>
       </c>
     </row>
     <row r="45">
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9234291911125183</v>
+        <v>0.8610563278198242</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.258142017643067</v>
+        <v>3.257574480457212</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>195133.4577716956</v>
+        <v>195168.4540885327</v>
       </c>
     </row>
     <row r="46">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8032026290893555</v>
+        <v>0.741502046585083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.594963017012046</v>
+        <v>3.595532509710316</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>195362.62056922</v>
+        <v>195369.8146826684</v>
       </c>
     </row>
     <row r="47">
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.997282862663269</v>
+        <v>0.9861650466918945</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.750284299091658</v>
+        <v>4.755684989040088</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>167090.957609988</v>
+        <v>167300.2677675493</v>
       </c>
     </row>
     <row r="48">
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9459911584854126</v>
+        <v>0.9437234997749329</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.205379342424131</v>
+        <v>4.205863247003745</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>285905.3519796124</v>
+        <v>285896.6632712072</v>
       </c>
     </row>
     <row r="49">
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5438427329063416</v>
+        <v>0.6482483148574829</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3.975771677076405</v>
+        <v>3.975929718614315</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>177241.1152100861</v>
+        <v>177266.7207077524</v>
       </c>
     </row>
     <row r="50">
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5731467604637146</v>
+        <v>0.5121093988418579</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.636179521718489</v>
+        <v>3.636381592173827</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>188588.3476149335</v>
+        <v>188600.0930154981</v>
       </c>
     </row>
     <row r="51">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2731208205223083</v>
+        <v>0.2157315015792847</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.350652620565358</v>
+        <v>2.365769310719894</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>119546.445904035</v>
+        <v>119778.2091747548</v>
       </c>
     </row>
     <row r="52">
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8968307971954346</v>
+        <v>0.8223363757133484</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3.893993594886871</v>
+        <v>3.895426142562437</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>236722.0283166969</v>
+        <v>236634.4907017923</v>
       </c>
     </row>
     <row r="53">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02028227783739567</v>
+        <v>0.1981404423713684</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.202516648214269</v>
+        <v>3.215573263958111</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>164464.0259049924</v>
+        <v>164789.6868729006</v>
       </c>
     </row>
     <row r="54">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.105327807366848</v>
+        <v>0.1901026517152786</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.52766066652168</v>
+        <v>3.527717373249615</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>176836.482382995</v>
+        <v>176858.3015869561</v>
       </c>
     </row>
     <row r="55">
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9603652358055115</v>
+        <v>0.8309941291809082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3.106582717568638</v>
+        <v>3.109017872883649</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>145577.6639055069</v>
+        <v>145587.1427052705</v>
       </c>
     </row>
     <row r="56">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1029661223292351</v>
+        <v>0.6125797629356384</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4.37482826717747</v>
+        <v>4.375047480878691</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>275702.8588053967</v>
+        <v>275756.7150160072</v>
       </c>
     </row>
     <row r="57">
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9640099406242371</v>
+        <v>0.9760584831237793</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4.271805831387959</v>
+        <v>4.271986132686222</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>187289.7765867635</v>
+        <v>187294.7997794777</v>
       </c>
     </row>
     <row r="58">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9900053143501282</v>
+        <v>0.9911637306213379</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4.745238649154651</v>
+        <v>4.747365606589671</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>276483.1314314387</v>
+        <v>276525.6515974302</v>
       </c>
     </row>
     <row r="59">
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8380760550498962</v>
+        <v>0.8642951250076294</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.996029231445695</v>
+        <v>6.996185251338172</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>305407.2228699473</v>
+        <v>305507.5043842888</v>
       </c>
     </row>
     <row r="60">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02965045906603336</v>
+        <v>0.03517317026853561</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2.582073345855497</v>
+        <v>2.602511424272512</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>120331.5072962806</v>
+        <v>120652.9486186236</v>
       </c>
     </row>
     <row r="61">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9831909537315369</v>
+        <v>0.9742496609687805</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>7.105603995630935</v>
+        <v>7.113131505326206</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>427103.5550897248</v>
+        <v>427499.3597323775</v>
       </c>
     </row>
     <row r="62">
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03605631366372108</v>
+        <v>0.1057979092001915</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.6764570297623</v>
+        <v>2.7001581797631</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>141069.6137216509</v>
+        <v>141219.1104971257</v>
       </c>
     </row>
     <row r="63">
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3969038128852844</v>
+        <v>0.6747305393218994</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4.135944513374121</v>
+        <v>4.136147986461583</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>212043.9514497209</v>
+        <v>212247.2897133115</v>
       </c>
     </row>
     <row r="64">
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8740967512130737</v>
+        <v>0.7098872661590576</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3.456603495072367</v>
+        <v>3.459146856038361</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>152226.522722875</v>
+        <v>152244.2338653512</v>
       </c>
     </row>
     <row r="65">
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1520844846963882</v>
+        <v>0.1026446148753166</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.40826074089841</v>
+        <v>3.409195477091042</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>222613.8304131964</v>
+        <v>222635.414525919</v>
       </c>
     </row>
     <row r="66">
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06008265167474747</v>
+        <v>0.3965601325035095</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.583239117253459</v>
+        <v>2.586236160555353</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>20.3291169282715</v>
+        <v>25.53235918802438</v>
       </c>
     </row>
     <row r="67">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9606248140335083</v>
+        <v>0.854324996471405</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3.069986353585111</v>
+        <v>3.090680094675002</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>143806.6570110436</v>
+        <v>144137.311907176</v>
       </c>
     </row>
     <row r="68">
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2524392902851105</v>
+        <v>0.2293015420436859</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.64819599014538</v>
+        <v>3.64919708052659</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>189521.6617137631</v>
+        <v>189536.4099333244</v>
       </c>
     </row>
     <row r="69">
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04202995821833611</v>
+        <v>0.06556098908185959</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.461277300815962</v>
+        <v>4.461540181523161</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>294665.6078977739</v>
+        <v>294701.5856901499</v>
       </c>
     </row>
     <row r="70">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02131238207221031</v>
+        <v>0.09042417258024216</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3.857791066314892</v>
+        <v>3.858003937388323</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>159548.1758670048</v>
+        <v>159591.6554138823</v>
       </c>
     </row>
     <row r="71">
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7186813354492188</v>
+        <v>0.5224445462226868</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.922728885368255</v>
+        <v>3.923546691788327</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>177732.9450107756</v>
+        <v>177721.9924526469</v>
       </c>
     </row>
     <row r="72">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.456949383020401</v>
+        <v>0.2639381885528564</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4.91247420695283</v>
+        <v>4.918648262758877</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>248905.9192066492</v>
+        <v>249261.6318836144</v>
       </c>
     </row>
     <row r="73">
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08695978671312332</v>
+        <v>0.1509574502706528</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.809183691960872</v>
+        <v>2.811566637199669</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>109653.2465593189</v>
+        <v>109669.6050816241</v>
       </c>
     </row>
     <row r="74">
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.02620001696050167</v>
+        <v>0.05169068649411201</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.861107712714016</v>
+        <v>3.873031610913063</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>12.19186412797433</v>
+        <v>12.20844398741705</v>
       </c>
     </row>
     <row r="75">
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9549421072006226</v>
+        <v>0.8804085850715637</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3.706473226465927</v>
+        <v>3.70783563586766</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>70633.56291043601</v>
+        <v>70653.32412657984</v>
       </c>
     </row>
     <row r="76">
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.972855269908905</v>
+        <v>0.9576498866081238</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.994543078028206</v>
+        <v>5.005746616646232</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>319261.0959373742</v>
+        <v>319339.072763111</v>
       </c>
     </row>
     <row r="77">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4882261455059052</v>
+        <v>0.3481301069259644</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.434153772888492</v>
+        <v>3.436713747948443</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>150385.2001014257</v>
+        <v>150427.3941462543</v>
       </c>
     </row>
     <row r="78">
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9410293698310852</v>
+        <v>0.9364092946052551</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4.369978877252923</v>
+        <v>4.373388974991116</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>211516.3957266073</v>
+        <v>211560.266791126</v>
       </c>
     </row>
     <row r="79">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2305645048618317</v>
+        <v>0.2978033125400543</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2.644134713146308</v>
+        <v>2.647133536572654</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>115650.8975324754</v>
+        <v>115651.6940745376</v>
       </c>
     </row>
     <row r="80">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9305940270423889</v>
+        <v>0.8723678588867188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.166379451726688</v>
+        <v>4.167212197077745</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>207517.731459121</v>
+        <v>207531.5062667925</v>
       </c>
     </row>
     <row r="81">
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.763697624206543</v>
+        <v>0.8450914025306702</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3.311018092176435</v>
+        <v>3.312818824377476</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>133433.6211343234</v>
+        <v>133431.59914659</v>
       </c>
     </row>
     <row r="82">
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8271985650062561</v>
+        <v>0.9061583876609802</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5.189125284653761</v>
+        <v>5.192238129149158</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>313212.8893778921</v>
+        <v>313223.6008181305</v>
       </c>
     </row>
     <row r="83">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.007565070409327745</v>
+        <v>0.04426154121756554</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.492320976825936</v>
+        <v>2.513757450892875</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>95456.89692762862</v>
+        <v>95427.88372943881</v>
       </c>
     </row>
     <row r="84">
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9334436655044556</v>
+        <v>0.9127817153930664</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2.722831263259755</v>
+        <v>2.732514377540678</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>14.54326674818657</v>
+        <v>14.67560325866945</v>
       </c>
     </row>
     <row r="85">
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9816573858261108</v>
+        <v>0.9345918893814087</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4.628085511175203</v>
+        <v>4.628760317951368</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>263322.1234691434</v>
+        <v>263339.1638904324</v>
       </c>
     </row>
     <row r="86">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.09334488213062286</v>
+        <v>0.1472766399383545</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3.754099444057517</v>
+        <v>3.754886770933686</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>182630.4342084989</v>
+        <v>182684.0516886021</v>
       </c>
     </row>
     <row r="87">
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08544589579105377</v>
+        <v>0.03204182907938957</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2.406465794337625</v>
+        <v>2.432798714011203</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>120847.3278366705</v>
+        <v>120948.4541171084</v>
       </c>
     </row>
     <row r="88">
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9620946645736694</v>
+        <v>0.9065682291984558</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3.704328298508524</v>
+        <v>3.70505416469108</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>70635.25924417836</v>
+        <v>70654.17238843453</v>
       </c>
     </row>
     <row r="89">
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8310617804527283</v>
+        <v>0.9227723479270935</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.458517299641409</v>
+        <v>7.460410959178634</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>452450.5891075515</v>
+        <v>452805.6287114776</v>
       </c>
     </row>
     <row r="90">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1249943673610687</v>
+        <v>0.1529841721057892</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3.477002015925821</v>
+        <v>3.477152741358368</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>136755.3493644829</v>
+        <v>136773.3381575397</v>
       </c>
     </row>
     <row r="91">
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9679590463638306</v>
+        <v>0.9279415011405945</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3.940451658578188</v>
+        <v>3.940584352034737</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>180720.0156777519</v>
+        <v>180678.9788138969</v>
       </c>
     </row>
     <row r="92">
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.990594744682312</v>
+        <v>0.9782655835151672</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.67791497544341</v>
+        <v>5.692800796510296</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>341668.9965212164</v>
+        <v>341034.3187117763</v>
       </c>
     </row>
   </sheetData>
